--- a/Docs/βばでの追加仕様書.xlsx
+++ b/Docs/βばでの追加仕様書.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>スキル</t>
     <phoneticPr fontId="1"/>
@@ -374,8 +374,37 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ステージのフォーマットについて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステージはUIとstatic用オブジェクト(SoundManager等)の、どのステージでも同じものを除く全てのゲームオブジェクトをプレハブ化して記憶する</t>
+    <rPh sb="14" eb="15">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="34" eb="35">
+      <t>ナド</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>ノゾ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>スベ</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="73" eb="75">
+      <t>キオク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>ステージをpublicの配列で記憶させていき、
-その数に応じてボタンを自動生成する。</t>
+その数に応じてボタンを均等に自動生成する。</t>
     <rPh sb="12" eb="14">
       <t>ハイレツ</t>
     </rPh>
@@ -389,9 +418,12 @@
       <t>オウ</t>
     </rPh>
     <rPh sb="35" eb="37">
+      <t>キントウ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
       <t>ジドウ</t>
     </rPh>
-    <rPh sb="37" eb="39">
+    <rPh sb="40" eb="42">
       <t>セイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -418,20 +450,59 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -440,11 +511,20 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -727,67 +807,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C12"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="94.5" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
+    <row r="3" spans="2:3" ht="94.5" x14ac:dyDescent="0.15">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="C5" s="1"/>
+    <row r="4" spans="2:3" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="6" spans="2:3" ht="121.5" x14ac:dyDescent="0.15">
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
+    <row r="5" spans="2:3" ht="81" x14ac:dyDescent="0.15">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="81" x14ac:dyDescent="0.15">
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>8</v>
+    <row r="6" spans="2:3" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>9</v>
+    <row r="7" spans="2:3" ht="27" x14ac:dyDescent="0.15">
+      <c r="B7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="27" x14ac:dyDescent="0.15">
-      <c r="B12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1" t="s">
+    <row r="8" spans="2:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="B8" s="2" t="s">
         <v>11</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
